--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +717,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -740,7 +740,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -763,7 +763,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -786,7 +786,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -809,7 +809,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,7 +832,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -878,7 +878,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -901,7 +901,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -924,7 +924,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -947,7 +947,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -970,7 +970,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -993,7 +993,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1016,7 +1016,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1039,7 +1039,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1062,7 +1062,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1085,7 +1085,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1108,7 +1108,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1131,7 +1131,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1154,7 +1154,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1177,7 +1177,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1200,7 +1200,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1223,7 +1223,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1246,7 +1246,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1269,7 +1269,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1292,7 +1292,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1315,7 +1315,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1338,7 +1338,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1361,7 +1361,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1384,7 +1384,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1407,7 +1407,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1430,7 +1430,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1453,7 +1453,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1476,7 +1476,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1499,7 +1499,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1522,7 +1522,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1545,7 +1545,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1568,7 +1568,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1591,7 +1591,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1614,7 +1614,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1637,7 +1637,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1660,7 +1660,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT85133.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1683,7 +1683,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1706,7 +1706,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9228.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1729,21 +1729,67 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9228.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1715,6 +2065,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1733,6 +2088,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1751,6 +2111,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1769,6 +2134,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1787,6 +2157,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1805,6 +2180,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1823,6 +2203,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1837,6 +2222,11 @@
         <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>203.2016790312244</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>1646.730542267404</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -510,21 +499,18 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>872.1435436911415</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -533,21 +519,18 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>728.6404890291338</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -556,21 +539,18 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15625.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>2190.967044434245</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -579,21 +559,18 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>1410.055019283377</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -602,21 +579,18 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>1124.020767319164</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -625,21 +599,18 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>1266.106062843216</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -648,21 +619,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>1157.755920678247</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -671,21 +639,18 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>1500.426432947483</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -694,21 +659,18 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>1178.797606493232</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -717,21 +679,18 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>386.7102075724541</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -740,21 +699,18 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>1581.706634205615</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -763,21 +719,18 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>1145.872280627862</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -786,21 +739,18 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>837.9370342164086</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -809,21 +759,18 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>981.8554071713331</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -832,21 +779,18 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>1211.272618918403</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -855,21 +799,18 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+        <v>668.4518882090883</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -878,21 +819,18 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+        <v>1013.29249829384</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -901,21 +839,18 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+        <v>1212.717815041681</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -924,21 +859,18 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
+        <v>1350.190832903809</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -947,21 +879,18 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
+        <v>2231.720590385277</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -970,21 +899,18 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
+        <v>1159.163864773885</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -993,21 +919,18 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
+        <v>1226.045907871752</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1016,21 +939,18 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
+        <v>1350.39646818139</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1039,21 +959,18 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
+        <v>1364.734624054694</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1062,21 +979,18 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
+        <v>1689.292667260706</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1085,21 +999,18 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
+        <v>1255.436094567113</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1108,21 +1019,18 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
+        <v>1991.609916884837</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1131,21 +1039,18 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
+        <v>1852.543489430527</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1154,21 +1059,18 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
+        <v>2132.01518278617</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1177,21 +1079,18 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
+        <v>1863.36576597112</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1200,21 +1099,18 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
+        <v>552.234043218823</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1223,21 +1119,18 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
+        <v>2164.884737190422</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1246,21 +1139,18 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
+        <v>1664.770144616392</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1269,21 +1159,18 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
+        <v>1632.330316773578</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1292,21 +1179,18 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
+        <v>595.4209555825648</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1315,21 +1199,18 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
+        <v>1972.106394897537</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1338,21 +1219,18 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
+        <v>1571.198320157766</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1361,21 +1239,18 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
+        <v>2151.875657884937</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1384,21 +1259,18 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
+        <v>1252.394825567864</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1407,21 +1279,18 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
+        <v>1243.068840856864</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1430,21 +1299,18 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
+        <v>1615.555546841128</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1453,21 +1319,18 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
+        <v>1692.372949723674</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1476,21 +1339,18 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
+        <v>1465.62069363056</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1499,21 +1359,18 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
+        <v>2107.177644010937</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1522,21 +1379,18 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
+        <v>981.6018919750411</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1545,21 +1399,18 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
+        <v>155.138482218491</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1568,21 +1419,18 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
+        <v>719.1703249857624</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1591,21 +1439,18 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
+        <v>873.4469069126756</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1614,21 +1459,18 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT85133.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
+        <v>1736.495181259131</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1637,21 +1479,18 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
+        <v>1048.297615958509</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1660,21 +1499,18 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
+        <v>224.2021308690759</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1683,21 +1519,18 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT90583.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
+        <v>241.122665006656</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1706,21 +1539,18 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT9228.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
+        <v>870.1614182124786</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
@@ -1729,504 +1559,18 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
+        <v>1228.104331249925</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62293.fa</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT67120.fa</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT67839.fa</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT67977.fa</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68023.fa</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68145.fa</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68157.fa</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68181.fa</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68598.fa</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68659.fa</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74324.fa</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80819.fa</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81959.fa</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82008.fa</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85133.fa</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8776.fa</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89959.fa</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90583.fa</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91633.fa</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9228.fa</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9760.fa</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,11 +519,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6404890291338</v>
+        <v>323.7655319908174</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,11 +539,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190.967044434245</v>
+        <v>728.6404890291338</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1410.055019283377</v>
+        <v>2190.967044434245</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -579,11 +579,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1124.020767319164</v>
+        <v>1410.055019283377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1266.106062843216</v>
+        <v>1124.020767319164</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1157.755920678247</v>
+        <v>1266.106062843216</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -639,11 +639,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1500.426432947483</v>
+        <v>1157.755920678247</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1178.797606493232</v>
+        <v>1500.426432947483</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>386.7102075724541</v>
+        <v>1178.797606493232</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1581.706634205615</v>
+        <v>386.7102075724541</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1145.872280627862</v>
+        <v>1581.706634205615</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>837.9370342164086</v>
+        <v>1145.872280627862</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>981.8554071713331</v>
+        <v>837.9370342164086</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1211.272618918403</v>
+        <v>981.8554071713331</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>668.4518882090883</v>
+        <v>1211.272618918403</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1013.29249829384</v>
+        <v>668.4518882090883</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1212.717815041681</v>
+        <v>1013.29249829384</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -859,11 +859,11 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1350.190832903809</v>
+        <v>1212.717815041681</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2231.720590385277</v>
+        <v>1350.190832903809</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1159.163864773885</v>
+        <v>2231.720590385277</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -919,11 +919,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1226.045907871752</v>
+        <v>1159.163864773885</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1350.39646818139</v>
+        <v>1226.045907871752</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -959,11 +959,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1364.734624054694</v>
+        <v>1350.39646818139</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,11 +979,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1689.292667260706</v>
+        <v>1364.734624054694</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1255.436094567113</v>
+        <v>1689.292667260706</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1991.609916884837</v>
+        <v>1255.436094567113</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1039,11 +1039,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1852.543489430527</v>
+        <v>1991.609916884837</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1059,11 +1059,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2132.01518278617</v>
+        <v>1852.543489430527</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1079,11 +1079,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1863.36576597112</v>
+        <v>2132.01518278617</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1099,11 +1099,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>552.234043218823</v>
+        <v>1863.36576597112</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1119,11 +1119,11 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2164.884737190422</v>
+        <v>552.234043218823</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1139,11 +1139,11 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1664.770144616392</v>
+        <v>2164.884737190422</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1159,11 +1159,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1632.330316773578</v>
+        <v>1664.770144616392</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1179,11 +1179,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>595.4209555825648</v>
+        <v>423.5405386885365</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1199,11 +1199,11 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1972.106394897537</v>
+        <v>1632.330316773578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1571.198320157766</v>
+        <v>595.4209555825648</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.875657884937</v>
+        <v>1972.106394897537</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1259,11 +1259,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1252.394825567864</v>
+        <v>1571.198320157766</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1279,11 +1279,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1243.068840856864</v>
+        <v>2151.875657884937</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1299,11 +1299,11 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1615.555546841128</v>
+        <v>1252.394825567864</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1692.372949723674</v>
+        <v>1243.068840856864</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1339,11 +1339,11 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1465.62069363056</v>
+        <v>1615.555546841128</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1359,11 +1359,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2107.177644010937</v>
+        <v>1692.372949723674</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1379,11 +1379,11 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>981.6018919750411</v>
+        <v>1465.62069363056</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1399,11 +1399,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>155.138482218491</v>
+        <v>2107.177644010937</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1419,11 +1419,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>719.1703249857624</v>
+        <v>981.6018919750411</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1439,11 +1439,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>873.4469069126756</v>
+        <v>155.138482218491</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1459,11 +1459,11 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1736.495181259131</v>
+        <v>719.1703249857624</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1479,11 +1479,11 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1048.297615958509</v>
+        <v>873.4469069126756</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1499,11 +1499,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT85133.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>224.2021308690759</v>
+        <v>1736.495181259131</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>241.122665006656</v>
+        <v>1048.297615958509</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1539,11 +1539,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9228.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>870.1614182124786</v>
+        <v>224.2021308690759</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1559,18 +1559,58 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>241.122665006656</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9228.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>870.1614182124786</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B59" t="n">
         <v>1228.104331249925</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT11526.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>872.1435436911415</v>
+        <v>1129.422713243125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15625.fa</t>
+          <t>even_MAG-GUT11820.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7655319908174</v>
+        <v>465.6618183686761</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,11 +539,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT11972.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>728.6404890291338</v>
+        <v>114.3723810700259</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT12106.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2190.967044434245</v>
+        <v>-31.07570638791606</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -572,18 +572,18 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Coriobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.055019283377</v>
+        <v>1191.028365031169</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT12533.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1124.020767319164</v>
+        <v>684.5032142269895</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1266.106062843216</v>
+        <v>565.528174855257</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -639,11 +639,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT13333.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1157.755920678247</v>
+        <v>1009.918303365868</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1500.426432947483</v>
+        <v>289.5881359109645</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1178.797606493232</v>
+        <v>872.1435436911415</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>386.7102075724541</v>
+        <v>275.6065879497213</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1581.706634205615</v>
+        <v>1120.433063456216</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1145.872280627862</v>
+        <v>323.7655319908174</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>837.9370342164086</v>
+        <v>728.6404890291338</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>981.8554071713331</v>
+        <v>2190.967044434245</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1211.272618918403</v>
+        <v>848.1140897259311</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT16851.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>668.4518882090883</v>
+        <v>608.3505213174575</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1013.29249829384</v>
+        <v>1410.055019283377</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -859,11 +859,11 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1212.717815041681</v>
+        <v>1191.041349536856</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1350.190832903809</v>
+        <v>343.632889939702</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2231.720590385277</v>
+        <v>1124.020767319164</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -919,11 +919,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1159.163864773885</v>
+        <v>1266.106062843216</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1226.045907871752</v>
+        <v>1157.755920678247</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -959,11 +959,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1350.39646818139</v>
+        <v>1500.426432947483</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,11 +979,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1364.734624054694</v>
+        <v>1241.729620712975</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.292667260706</v>
+        <v>1178.797606493232</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT23967.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1255.436094567113</v>
+        <v>1035.393438462062</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1039,11 +1039,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1991.609916884837</v>
+        <v>290.6702691260898</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1059,11 +1059,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1852.543489430527</v>
+        <v>386.7102075724541</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1079,11 +1079,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2132.01518278617</v>
+        <v>1581.706634205615</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1099,11 +1099,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1863.36576597112</v>
+        <v>1145.872280627862</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1119,11 +1119,11 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>552.234043218823</v>
+        <v>837.9370342164086</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1139,11 +1139,11 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2164.884737190422</v>
+        <v>981.8554071713331</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1159,11 +1159,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1664.770144616392</v>
+        <v>1211.272618918403</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1179,11 +1179,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>423.5405386885365</v>
+        <v>668.4518882090883</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1199,11 +1199,11 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1632.330316773578</v>
+        <v>1013.29249829384</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>595.4209555825648</v>
+        <v>1212.717815041681</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1972.106394897537</v>
+        <v>733.4307556164813</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1259,11 +1259,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT26803.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1571.198320157766</v>
+        <v>628.6522714394146</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1279,11 +1279,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2151.875657884937</v>
+        <v>827.0519454660102</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1299,11 +1299,11 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT28915.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1252.394825567864</v>
+        <v>460.6768132720495</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1243.068840856864</v>
+        <v>1350.190832903809</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1339,11 +1339,11 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1615.555546841128</v>
+        <v>2231.720590385277</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1359,11 +1359,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1692.372949723674</v>
+        <v>917.549909610919</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1379,11 +1379,11 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1465.62069363056</v>
+        <v>1159.163864773885</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1399,11 +1399,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2107.177644010937</v>
+        <v>328.6201509383184</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1419,11 +1419,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>981.6018919750411</v>
+        <v>1226.045907871752</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1439,11 +1439,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT32404.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>155.138482218491</v>
+        <v>1014.552476094269</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1459,11 +1459,11 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>719.1703249857624</v>
+        <v>1068.998176642666</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1479,11 +1479,11 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT32879.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>873.4469069126756</v>
+        <v>754.670707436591</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1499,11 +1499,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1736.495181259131</v>
+        <v>1350.39646818139</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1048.297615958509</v>
+        <v>1364.734624054694</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1539,11 +1539,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>224.2021308690759</v>
+        <v>1689.292667260706</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1559,11 +1559,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT33270.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>241.122665006656</v>
+        <v>213.87002216703</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1579,11 +1579,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9228.fa</t>
+          <t>even_MAG-GUT33324.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>870.1614182124786</v>
+        <v>1023.154802062407</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1599,18 +1599,1638 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT33557.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1255.436094567113</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33569.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1991.609916884837</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33914.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>195.7061617475373</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34594.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1852.543489430527</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35087.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>759.1405105381999</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35198.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2132.01518278617</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35206.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>715.1040300625755</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35271.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1863.36576597112</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3531.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>552.234043218823</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35597.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>587.1543904473939</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35747.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>74.98730863492355</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36138.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>612.9653566035937</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36441.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1023.64151038746</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3651.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>485.7269785845072</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36814.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>313.1617992769013</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3702.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>721.1897197793215</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37024.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2164.884737190422</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37154.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>581.0801100656428</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37934.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>686.2564925583006</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT38016.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>372.1515009359564</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT38263.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1664.770144616392</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT38584.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>864.3282985375565</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT39108.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>423.5405386885365</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT39152.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>890.0794755615741</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3922.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>227.5257643974665</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4044.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>855.5170891907508</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4062.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>948.2273838020401</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4125.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1008.991219013147</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4207.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>972.1108187508712</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44688.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1632.330316773578</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45090.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>595.4209555825648</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46159.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>616.971125573799</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46719.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>700.4621254997049</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4832.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>750.1503050057775</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4979.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>145.443267275982</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50219.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>598.6166772991401</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT54544.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1004.651395174375</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5486.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1972.106394897537</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56948.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1276.552184550652</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57094.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>708.4288948403788</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57392.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1571.198320157766</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57492.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2151.875657884937</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57682.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>424.5517640436969</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57819.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1252.394825567864</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57904.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>885.9445471689498</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58156.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>663.6426614010065</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58768.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1156.838084470173</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59114.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1009.924981700123</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59205.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1044.429302749767</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59296.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1243.068840856864</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59532.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1615.555546841128</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59561.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1692.372949723674</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59569.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1465.62069363056</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61666.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2107.177644010937</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62293.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>981.6018919750411</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62370.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>264.4048505372903</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT67770.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>501.0258445823753</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68023.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>754.6968661453526</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68181.fa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>682.0165250478854</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6856.fa</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1088.086419922595</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68598.fa</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>155.138482218491</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68659.fa</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>619.132480935168</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69048.fa</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>689.2592976850872</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6929.fa</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>147.9952410629195</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74324.fa</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>598.0696789402465</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79219.fa</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1058.538167976592</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80384.fa</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>459.6933652486808</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80720.fa</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>180.0695333003682</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80819.fa</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>719.1703249857624</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81523.fa</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>272.1072790009069</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81959.fa</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>606.6830984237902</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82008.fa</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>873.4469069126756</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85133.fa</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1736.495181259131</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8640.fa</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1076.105766227882</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86606.fa</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>359.4901813006486</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8776.fa</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1048.297615958509</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89959.fa</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>224.2021308690759</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>241.122665006656</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9228.fa</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>870.1614182124786</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9744.fa</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>177.7723019836778</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B139" t="n">
         <v>1228.104331249925</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9970.fa</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>151.8429810382092</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,11 +519,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11820.fa</t>
+          <t>even_MAG-GUT12106.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>465.6618183686761</v>
+        <v>-31.07570638791606</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -532,18 +532,18 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Coriobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11972.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.3723810700259</v>
+        <v>1191.028365031169</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12106.fa</t>
+          <t>even_MAG-GUT12533.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.07570638791606</v>
+        <v>684.5032142269895</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -572,18 +572,18 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12393.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1191.028365031169</v>
+        <v>565.528174855257</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12533.fa</t>
+          <t>even_MAG-GUT13333.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>684.5032142269895</v>
+        <v>1009.918303365868</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12691.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565.528174855257</v>
+        <v>289.5881359109645</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -639,11 +639,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13333.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1009.918303365868</v>
+        <v>872.1435436911415</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13881.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>289.5881359109645</v>
+        <v>275.6065879497213</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.1435436911415</v>
+        <v>1120.433063456216</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14250.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275.6065879497213</v>
+        <v>323.7655319908174</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT151.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1120.433063456216</v>
+        <v>728.6404890291338</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15625.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>323.7655319908174</v>
+        <v>2190.967044434245</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>728.6404890291338</v>
+        <v>848.1140897259311</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT16851.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2190.967044434245</v>
+        <v>608.3505213174575</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16149.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.1140897259311</v>
+        <v>1410.055019283377</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16851.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>608.3505213174575</v>
+        <v>1191.041349536856</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1410.055019283377</v>
+        <v>343.632889939702</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -859,11 +859,11 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17705.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1191.041349536856</v>
+        <v>1124.020767319164</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18195.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.632889939702</v>
+        <v>1266.106062843216</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1124.020767319164</v>
+        <v>1157.755920678247</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -919,11 +919,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1266.106062843216</v>
+        <v>1500.426432947483</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1157.755920678247</v>
+        <v>1241.729620712975</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -959,11 +959,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1500.426432947483</v>
+        <v>1178.797606493232</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,11 +979,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22751.fa</t>
+          <t>even_MAG-GUT23967.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1241.729620712975</v>
+        <v>1035.393438462062</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1178.797606493232</v>
+        <v>290.6702691260898</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23967.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1035.393438462062</v>
+        <v>386.7102075724541</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1039,11 +1039,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25075.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.6702691260898</v>
+        <v>1581.706634205615</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1059,11 +1059,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>386.7102075724541</v>
+        <v>1145.872280627862</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1079,11 +1079,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1581.706634205615</v>
+        <v>837.9370342164086</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1099,11 +1099,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1145.872280627862</v>
+        <v>981.8554071713331</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1119,11 +1119,11 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>837.9370342164086</v>
+        <v>1211.272618918403</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1139,11 +1139,11 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>981.8554071713331</v>
+        <v>668.4518882090883</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1159,11 +1159,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1211.272618918403</v>
+        <v>1013.29249829384</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1179,11 +1179,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>668.4518882090883</v>
+        <v>1212.717815041681</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1199,11 +1199,11 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1013.29249829384</v>
+        <v>733.4307556164813</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT26803.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1212.717815041681</v>
+        <v>628.6522714394146</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2660.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>733.4307556164813</v>
+        <v>827.0519454660102</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1259,11 +1259,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26803.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>628.6522714394146</v>
+        <v>1350.190832903809</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1279,11 +1279,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2783.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>827.0519454660102</v>
+        <v>2231.720590385277</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1299,11 +1299,11 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28915.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>460.6768132720495</v>
+        <v>917.549909610919</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1350.190832903809</v>
+        <v>1159.163864773885</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1339,11 +1339,11 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2231.720590385277</v>
+        <v>328.6201509383184</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1359,11 +1359,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30102.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>917.549909610919</v>
+        <v>1226.045907871752</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1379,11 +1379,11 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT32404.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1159.163864773885</v>
+        <v>1014.552476094269</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1399,11 +1399,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31546.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>328.6201509383184</v>
+        <v>1068.998176642666</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1419,11 +1419,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT32879.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1226.045907871752</v>
+        <v>754.670707436591</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1439,11 +1439,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32404.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1014.552476094269</v>
+        <v>1350.39646818139</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1459,11 +1459,11 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32509.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1068.998176642666</v>
+        <v>1364.734624054694</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1479,11 +1479,11 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32879.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>754.670707436591</v>
+        <v>1689.292667260706</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1499,11 +1499,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT33324.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1350.39646818139</v>
+        <v>1023.154802062407</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1364.734624054694</v>
+        <v>1255.436094567113</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1539,11 +1539,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1689.292667260706</v>
+        <v>1991.609916884837</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1559,11 +1559,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33270.fa</t>
+          <t>even_MAG-GUT33914.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>213.87002216703</v>
+        <v>195.7061617475373</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1579,11 +1579,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33324.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1023.154802062407</v>
+        <v>1852.543489430527</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1255.436094567113</v>
+        <v>759.1405105381999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1619,11 +1619,11 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1991.609916884837</v>
+        <v>2132.01518278617</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1639,11 +1639,11 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33914.fa</t>
+          <t>even_MAG-GUT35206.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>195.7061617475373</v>
+        <v>715.1040300625755</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1659,11 +1659,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1852.543489430527</v>
+        <v>1863.36576597112</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1679,11 +1679,11 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35087.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>759.1405105381999</v>
+        <v>552.234043218823</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1699,11 +1699,11 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT35597.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2132.01518278617</v>
+        <v>587.1543904473939</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1719,11 +1719,11 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35206.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>715.1040300625755</v>
+        <v>1023.64151038746</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1739,11 +1739,11 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT3651.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1863.36576597112</v>
+        <v>485.7269785845072</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1759,11 +1759,11 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT3702.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>552.234043218823</v>
+        <v>721.1897197793215</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1779,11 +1779,11 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35597.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>587.1543904473939</v>
+        <v>2164.884737190422</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1799,11 +1799,11 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35747.fa</t>
+          <t>even_MAG-GUT37154.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>74.98730863492355</v>
+        <v>581.0801100656428</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1819,11 +1819,11 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT37934.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>612.9653566035937</v>
+        <v>686.2564925583006</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1839,11 +1839,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36441.fa</t>
+          <t>even_MAG-GUT38016.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1023.64151038746</v>
+        <v>372.1515009359564</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3651.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>485.7269785845072</v>
+        <v>1664.770144616392</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1879,11 +1879,11 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36814.fa</t>
+          <t>even_MAG-GUT38584.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>313.1617992769013</v>
+        <v>864.3282985375565</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1899,11 +1899,11 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3702.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>721.1897197793215</v>
+        <v>148.3004089343341</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1919,11 +1919,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2164.884737190422</v>
+        <v>423.5405386885365</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1939,11 +1939,11 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37154.fa</t>
+          <t>even_MAG-GUT39152.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>581.0801100656428</v>
+        <v>890.0794755615741</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37934.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>686.2564925583006</v>
+        <v>227.5257643974665</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1979,11 +1979,11 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38016.fa</t>
+          <t>even_MAG-GUT4044.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>372.1515009359564</v>
+        <v>855.5170891907508</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1999,11 +1999,11 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT4062.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1664.770144616392</v>
+        <v>948.2273838020401</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2019,11 +2019,11 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38584.fa</t>
+          <t>even_MAG-GUT4125.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>864.3282985375565</v>
+        <v>1008.991219013147</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2039,11 +2039,11 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT4207.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>423.5405386885365</v>
+        <v>972.1108187508712</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2059,11 +2059,11 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39152.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>890.0794755615741</v>
+        <v>1632.330316773578</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2079,11 +2079,11 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3922.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>227.5257643974665</v>
+        <v>595.4209555825648</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2099,11 +2099,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4044.fa</t>
+          <t>even_MAG-GUT4832.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>855.5170891907508</v>
+        <v>750.1503050057775</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2119,11 +2119,11 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4062.fa</t>
+          <t>even_MAG-GUT50219.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>948.2273838020401</v>
+        <v>598.6166772991401</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2139,11 +2139,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4125.fa</t>
+          <t>even_MAG-GUT54544.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1008.991219013147</v>
+        <v>1004.651395174375</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2159,11 +2159,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4207.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>972.1108187508712</v>
+        <v>1972.106394897537</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2179,11 +2179,11 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT56948.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1632.330316773578</v>
+        <v>1276.552184550652</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2199,11 +2199,11 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT57094.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>595.4209555825648</v>
+        <v>708.4288948403788</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2219,11 +2219,11 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>616.971125573799</v>
+        <v>1571.198320157766</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2239,11 +2239,11 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>700.4621254997049</v>
+        <v>2151.875657884937</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2259,11 +2259,11 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4832.fa</t>
+          <t>even_MAG-GUT57682.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>750.1503050057775</v>
+        <v>424.5517640436969</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2279,11 +2279,11 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>145.443267275982</v>
+        <v>1252.394825567864</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2299,11 +2299,11 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50219.fa</t>
+          <t>even_MAG-GUT57904.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>598.6166772991401</v>
+        <v>885.9445471689498</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54544.fa</t>
+          <t>even_MAG-GUT58156.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1004.651395174375</v>
+        <v>663.6426614010065</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2339,11 +2339,11 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT58768.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1972.106394897537</v>
+        <v>1156.838084470173</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2359,11 +2359,11 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56948.fa</t>
+          <t>even_MAG-GUT59114.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1276.552184550652</v>
+        <v>1009.924981700123</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2379,11 +2379,11 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57094.fa</t>
+          <t>even_MAG-GUT59205.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>708.4288948403788</v>
+        <v>1044.429302749767</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1571.198320157766</v>
+        <v>1243.068840856864</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2419,11 +2419,11 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2151.875657884937</v>
+        <v>1615.555546841128</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2439,11 +2439,11 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57682.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>424.5517640436969</v>
+        <v>1692.372949723674</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2459,11 +2459,11 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1252.394825567864</v>
+        <v>1465.62069363056</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2479,11 +2479,11 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57904.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>885.9445471689498</v>
+        <v>2107.177644010937</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58156.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>663.6426614010065</v>
+        <v>981.6018919750411</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2519,11 +2519,11 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58768.fa</t>
+          <t>even_MAG-GUT62370.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1156.838084470173</v>
+        <v>264.4048505372903</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2539,11 +2539,11 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59114.fa</t>
+          <t>even_MAG-GUT6856.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1009.924981700123</v>
+        <v>1088.086419922595</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2559,11 +2559,11 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59205.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1044.429302749767</v>
+        <v>155.138482218491</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2579,11 +2579,11 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT6929.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1243.068840856864</v>
+        <v>147.9952410629195</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2599,11 +2599,11 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT79219.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1615.555546841128</v>
+        <v>1058.538167976592</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2619,11 +2619,11 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT80384.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1692.372949723674</v>
+        <v>459.6933652486808</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2639,11 +2639,11 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT80720.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1465.62069363056</v>
+        <v>180.0695333003682</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2659,11 +2659,11 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2107.177644010937</v>
+        <v>719.1703249857624</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT81523.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>981.6018919750411</v>
+        <v>272.1072790009069</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2699,11 +2699,11 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62370.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>264.4048505372903</v>
+        <v>873.4469069126756</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2719,11 +2719,11 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT85133.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>501.0258445823753</v>
+        <v>1736.495181259131</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2739,11 +2739,11 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT8640.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>754.6968661453526</v>
+        <v>1076.105766227882</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2759,11 +2759,11 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68181.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>682.0165250478854</v>
+        <v>1048.297615958509</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2779,11 +2779,11 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6856.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1088.086419922595</v>
+        <v>224.2021308690759</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2799,11 +2799,11 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT90583.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>155.138482218491</v>
+        <v>241.122665006656</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2819,11 +2819,11 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT9228.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>619.132480935168</v>
+        <v>870.1614182124786</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2839,11 +2839,11 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69048.fa</t>
+          <t>even_MAG-GUT9744.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>689.2592976850872</v>
+        <v>177.7723019836778</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2859,11 +2859,11 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6929.fa</t>
+          <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>147.9952410629195</v>
+        <v>1228.104331249925</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2879,11 +2879,11 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT9970.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>598.0696789402465</v>
+        <v>151.8429810382092</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2891,346 +2891,6 @@
         </is>
       </c>
       <c r="D123" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79219.fa</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>1058.538167976592</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80384.fa</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>459.6933652486808</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80720.fa</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>180.0695333003682</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80819.fa</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>719.1703249857624</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81523.fa</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>272.1072790009069</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81959.fa</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>606.6830984237902</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82008.fa</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>873.4469069126756</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85133.fa</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1736.495181259131</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8640.fa</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1076.105766227882</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86606.fa</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>359.4901813006486</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8776.fa</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>1048.297615958509</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89959.fa</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>224.2021308690759</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90583.fa</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>241.122665006656</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9228.fa</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>870.1614182124786</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9744.fa</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>177.7723019836778</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9760.fa</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>1228.104331249925</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9970.fa</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>151.8429810382092</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -478,11 +473,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,11 +491,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,11 +509,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,11 +527,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -570,11 +545,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -593,11 +563,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -616,11 +581,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -639,11 +599,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -662,11 +617,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -685,11 +635,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -708,11 +653,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -731,11 +671,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -754,11 +689,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -777,11 +707,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -800,11 +725,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -823,11 +743,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -846,11 +761,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -869,11 +779,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -892,11 +797,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -915,11 +815,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -938,11 +833,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -961,11 +851,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -984,11 +869,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1007,11 +887,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1030,11 +905,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1053,11 +923,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1076,11 +941,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1099,11 +959,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1122,11 +977,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1145,11 +995,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1168,11 +1013,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1191,11 +1031,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1214,11 +1049,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1237,11 +1067,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1260,11 +1085,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1283,11 +1103,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1306,11 +1121,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1329,11 +1139,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1352,11 +1157,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1375,11 +1175,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1398,11 +1193,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1421,11 +1211,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1444,11 +1229,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1467,11 +1247,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1490,11 +1265,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1513,11 +1283,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1536,11 +1301,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1559,11 +1319,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1582,11 +1337,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1605,11 +1355,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1628,11 +1373,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1651,11 +1391,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1674,11 +1409,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1697,11 +1427,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1720,11 +1445,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1743,11 +1463,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1766,11 +1481,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1789,11 +1499,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1812,11 +1517,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1835,11 +1535,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1858,11 +1553,6 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1877,11 +1567,6 @@
         <v>63024.94478432367</v>
       </c>
       <c r="D63" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Coriobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1567,6 +1877,11 @@
         <v>63024.94478432367</v>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
